--- a/新品牌爬虫2019-9-11.xlsx
+++ b/新品牌爬虫2019-9-11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,142 +46,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MOSCHINO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.lanvin.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E5%A4%A7%E8%A1%A3-%E5%A5%B3%E5%A3%AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.clinique.com.cn/products/1673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.christofle.com/eu_fr/bijoux/nouveautes.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://buccellati.com.cn/zh-hans/categories/%E6%89%8B%E9%95%AF/%E9%A3%8E%E6%A0%BC%E4%BD%9C%E5%93%81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/shoes/all-shoes.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.balmain.com/wy/%E5%A5%B3%E5%A3%AB/%E8%BF%9E%E8%A1%A3%E8%A3%99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.longchamp.cn/sku?f%5B0%5D=function%3A%E6%89%8B%E8%A2%8B&amp;f%5B1%5D=frag%3AWomen&amp;f%5B2%5D=category%3A%E5%8C%85%E6%AC%BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lamer.com.cn/moisturizers/moisturizing-face-creams-face-lotions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chcarolinaherrera.com/00/en/women-b691168/new-collection/view-all-b746668?_ga=2.142779318.2085540783.1567478364-1482814160.1567478364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carolina Herrera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANVIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLINIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christofle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUCCELLATI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALMAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Victoria Beckham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONGCHAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA MER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.fentybeauty.com/shop/tinsel-%24how-collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tissotwatches.cn/sale/family/tissot-chemin-des-tourelles-squelette.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.katespade.cn/handbags_shoulder-bags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.berluti.com/zh-cn/1/niu-jin-xie-yu-de-bi-xie/?viewtype=grid-view-editorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.emiliopucci.com/en-cn/sets/woman/new-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.loropiana.com/zh/c/%E5%A5%B3%E8%A3%85/%E5%8C%85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nicholaskirkwood.com/cn/sets/pumps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Tissot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.tissotwatches.cn/sale/family/tissot-chemin-des-tourelles-squelette.html</t>
-  </si>
-  <si>
     <t>Kate Spade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.katespade.cn/handbags_shoulder-bags</t>
-  </si>
-  <si>
-    <t>MOSCHINO</t>
+    <t>Fenty Beauty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berluti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emilio Pucci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LORO PIANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicholas Kirkwood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://international.victoriabeckham.com/collections/tote-bags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.victoriabeckhambeauty.com/eyes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.moschino.com/us_en/moschino/women/clothing/outerwear.html</t>
-  </si>
-  <si>
-    <t>美元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fenty Beauty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.fentybeauty.com/shop/tinsel-%24how-collection</t>
-  </si>
-  <si>
-    <t>Berluti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.berluti.com/zh-cn/1/niu-jin-xie-yu-de-bi-xie/?viewtype=grid-view-editorial</t>
-  </si>
-  <si>
-    <t>https://www.emiliopucci.com/en-cn/sets/woman/new-in</t>
-  </si>
-  <si>
-    <t>Emilio Pucci</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LORO PIANA</t>
-  </si>
-  <si>
-    <t>https://cn.loropiana.com/zh/c/%E5%A5%B3%E8%A3%85/%E5%8C%85</t>
-  </si>
-  <si>
-    <t>Nicholas Kirkwood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nicholaskirkwood.com/cn/sets/pumps</t>
-  </si>
-  <si>
-    <t>https://store.lanvin.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E5%A4%A7%E8%A1%A3-%E5%A5%B3%E5%A3%AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.clinique.com.cn/products/1673</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.christofle.com/eu_fr/bijoux/nouveautes.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://buccellati.com.cn/zh-hans/categories/%E6%89%8B%E9%95%AF/%E9%A3%8E%E6%A0%BC%E4%BD%9C%E5%93%81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/shoes/all-shoes.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://international.victoriabeckham.com/collections/tote-bags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.balmain.com/wy/%E5%A5%B3%E5%A3%AB/%E8%BF%9E%E8%A1%A3%E8%A3%99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.victoriabeckhambeauty.com/eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.longchamp.cn/sku?f%5B0%5D=function%3A%E6%89%8B%E8%A2%8B&amp;f%5B1%5D=frag%3AWomen&amp;f%5B2%5D=category%3A%E5%8C%85%E6%AC%BE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.lamer.com.cn/moisturizers/moisturizing-face-creams-face-lotions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://chcarolinaherrera.com/00/en/women-b691168/new-collection/view-all-b746668?_ga=2.142779318.2085540783.1567478364-1482814160.1567478364</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carolina Herrera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANVIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLINIQUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Christofle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUCCELLATI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BALMAIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Victoria Beckham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONGCHAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LA MER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳天猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,15 +274,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,6 +285,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -606,175 +628,185 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -793,6 +825,14 @@
     <hyperlink ref="B13" r:id="rId9"/>
     <hyperlink ref="B14" r:id="rId10"/>
     <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B21" r:id="rId15"/>
+    <hyperlink ref="B16" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B17" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
